--- a/Code/Results/Cases/Case_2_174/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_174/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.912150781213597</v>
+        <v>0.6187859619917049</v>
       </c>
       <c r="C2">
-        <v>0.4138610638813418</v>
+        <v>0.1482812415112562</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2391853841000611</v>
+        <v>0.1322710659816622</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0007779521577560677</v>
+        <v>0.002385128605070427</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8521568990625212</v>
+        <v>0.2978359708012661</v>
       </c>
       <c r="N2">
-        <v>0.5945774721839214</v>
+        <v>0.960436838222904</v>
       </c>
       <c r="O2">
-        <v>1.255686762240515</v>
+        <v>1.582169136539818</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.662443896504129</v>
+        <v>0.5429880626761303</v>
       </c>
       <c r="C3">
-        <v>0.3664466983821626</v>
+        <v>0.133044394223873</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2086862433592174</v>
+        <v>0.1253534587306149</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0007821754547155359</v>
+        <v>0.002387878182505747</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7375393537266532</v>
+        <v>0.2652862838435652</v>
       </c>
       <c r="N3">
-        <v>0.6164476165691894</v>
+        <v>0.9700696459690406</v>
       </c>
       <c r="O3">
-        <v>1.162852628149977</v>
+        <v>1.576926623619414</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.509478118895544</v>
+        <v>0.49639343437957</v>
       </c>
       <c r="C4">
-        <v>0.3373297896819167</v>
+        <v>0.1236312559996122</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1904320055166693</v>
+        <v>0.121218089091947</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0007848490286311659</v>
+        <v>0.002389656037660677</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6677221070459183</v>
+        <v>0.2453644858629005</v>
       </c>
       <c r="N4">
-        <v>0.6309159754955758</v>
+        <v>0.9764398761099216</v>
       </c>
       <c r="O4">
-        <v>1.10967735031204</v>
+        <v>1.575119647667719</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.447205372704332</v>
+        <v>0.4773928547347737</v>
       </c>
       <c r="C5">
-        <v>0.3254589179489358</v>
+        <v>0.1197809960475809</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1830995992945361</v>
+        <v>0.1195608281402016</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0007859592367967617</v>
+        <v>0.002390403128460692</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6393894873914618</v>
+        <v>0.2372622078979205</v>
       </c>
       <c r="N5">
-        <v>0.6370646238687883</v>
+        <v>0.9791504049931561</v>
       </c>
       <c r="O5">
-        <v>1.088901129349125</v>
+        <v>1.574737177684199</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.43686801404121</v>
+        <v>0.4742370678440011</v>
       </c>
       <c r="C6">
-        <v>0.3234873138501655</v>
+        <v>0.1191408027908096</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1818881329569066</v>
+        <v>0.119287321322787</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0007861448500108331</v>
+        <v>0.002390528549337325</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6346914178777396</v>
+        <v>0.235917797171183</v>
       </c>
       <c r="N6">
-        <v>0.6381006143491419</v>
+        <v>0.9796074093519493</v>
       </c>
       <c r="O6">
-        <v>1.085503259708901</v>
+        <v>1.574695008880013</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.508638070421995</v>
+        <v>0.4961372370578943</v>
       </c>
       <c r="C7">
-        <v>0.3371697228097617</v>
+        <v>0.1235793878447282</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1903327034078117</v>
+        <v>0.1211956259036242</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0007848639168364327</v>
+        <v>0.002389666021551239</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6673395517245595</v>
+        <v>0.2452551509048604</v>
       </c>
       <c r="N7">
-        <v>0.6309978865550718</v>
+        <v>0.976475967162429</v>
       </c>
       <c r="O7">
-        <v>1.109393626715161</v>
+        <v>1.575113058207165</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.825961072331324</v>
+        <v>0.592662590556472</v>
       </c>
       <c r="C8">
-        <v>0.3975107118776009</v>
+        <v>0.1430396381387311</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2285635030885089</v>
+        <v>0.1298624651760178</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.0007793919466066278</v>
+        <v>0.002386058103733811</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8125072062741765</v>
+        <v>0.2865995556549024</v>
       </c>
       <c r="N8">
-        <v>0.6018969663020002</v>
+        <v>0.9636636790217352</v>
       </c>
       <c r="O8">
-        <v>1.222840993609708</v>
+        <v>1.580067764046674</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.452400547082846</v>
+        <v>0.7814912944681396</v>
       </c>
       <c r="C9">
-        <v>0.516026637873324</v>
+        <v>0.1807380898304416</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3078879559788987</v>
+        <v>0.1477593662047951</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007692768833139947</v>
+        <v>0.002379690798020927</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.102686586678928</v>
+        <v>0.3681883095523162</v>
       </c>
       <c r="N9">
-        <v>0.5535060706141408</v>
+        <v>0.9421529454581332</v>
       </c>
       <c r="O9">
-        <v>1.478977798406902</v>
+        <v>1.601042616706536</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.917256647522265</v>
+        <v>0.9199244875791805</v>
       </c>
       <c r="C10">
-        <v>0.6035581811082977</v>
+        <v>0.2081479438601548</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.369739135288853</v>
+        <v>0.1614757331097891</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007621863262908074</v>
+        <v>0.002375439814465714</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.32087254938493</v>
+        <v>0.4284584075660263</v>
       </c>
       <c r="N10">
-        <v>0.5238721551604542</v>
+        <v>0.9285508886679139</v>
       </c>
       <c r="O10">
-        <v>1.692644033781647</v>
+        <v>1.623397971210807</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.130238815596329</v>
+        <v>0.9828328856214057</v>
       </c>
       <c r="C11">
-        <v>0.6435631282712961</v>
+        <v>0.2205541613240314</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3988777712928666</v>
+        <v>0.1678428791132234</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007590264813080208</v>
+        <v>0.002373597725217965</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.421615367470594</v>
+        <v>0.4559512894493878</v>
       </c>
       <c r="N11">
-        <v>0.5118283155366115</v>
+        <v>0.9228409020569899</v>
       </c>
       <c r="O11">
-        <v>1.796581534545481</v>
+        <v>1.6350939137578</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.211153104261427</v>
+        <v>1.006644630511062</v>
       </c>
       <c r="C12">
-        <v>0.6587464657181386</v>
+        <v>0.2252429303046881</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4100766715574835</v>
+        <v>0.1702725788905965</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007578386427843211</v>
+        <v>0.002372913289807099</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.460014611781446</v>
+        <v>0.4663731609416573</v>
       </c>
       <c r="N12">
-        <v>0.5074881637066824</v>
+        <v>0.9207473684922505</v>
       </c>
       <c r="O12">
-        <v>1.837018662521473</v>
+        <v>1.639743709079056</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.193714336402991</v>
+        <v>1.001516817169545</v>
       </c>
       <c r="C13">
-        <v>0.6554748075953682</v>
+        <v>0.2242335319643587</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.407657112205932</v>
+        <v>0.1697484681087005</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007580940890288242</v>
+        <v>0.002373060112628382</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.45173291367874</v>
+        <v>0.4641281386141998</v>
       </c>
       <c r="N13">
-        <v>0.5084128475637755</v>
+        <v>0.9211951918117194</v>
       </c>
       <c r="O13">
-        <v>1.828260010355791</v>
+        <v>1.638732451739145</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.136890151875946</v>
+        <v>0.9847921036242155</v>
       </c>
       <c r="C14">
-        <v>0.6448115367590219</v>
+        <v>0.2209400945373545</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.399795685020365</v>
+        <v>0.1680423976868823</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007589285865534682</v>
+        <v>0.002373541153570941</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.424769265306082</v>
+        <v>0.4568084842039042</v>
       </c>
       <c r="N14">
-        <v>0.51146674359196</v>
+        <v>0.9226672884731926</v>
       </c>
       <c r="O14">
-        <v>1.799886053376127</v>
+        <v>1.635472022670825</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.102119278480131</v>
+        <v>0.9745463664210092</v>
       </c>
       <c r="C15">
-        <v>0.6382846825175079</v>
+        <v>0.2189215658964656</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3950024319241905</v>
+        <v>0.16699981041684</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007594408544410493</v>
+        <v>0.002373837512515035</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.408286951599237</v>
+        <v>0.4523264066352652</v>
       </c>
       <c r="N15">
-        <v>0.5133665044660063</v>
+        <v>0.9235779397467923</v>
       </c>
       <c r="O15">
-        <v>1.782650002676718</v>
+        <v>1.633503708556191</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.903371994666315</v>
+        <v>0.9158118819315177</v>
       </c>
       <c r="C16">
-        <v>0.6009481416162146</v>
+        <v>0.207335891557392</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3678567423782226</v>
+        <v>0.1610622134532278</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007623940911604046</v>
+        <v>0.002375562039031063</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.314321734874198</v>
+        <v>0.4266632088319398</v>
       </c>
       <c r="N16">
-        <v>0.5246893299940965</v>
+        <v>0.9289336636772845</v>
       </c>
       <c r="O16">
-        <v>1.685996209936519</v>
+        <v>1.622664439995134</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.781865871822163</v>
+        <v>0.8797627651288735</v>
       </c>
       <c r="C17">
-        <v>0.5780962558918077</v>
+        <v>0.2002122738882122</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3514745014416079</v>
+        <v>0.1574525346935758</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0007642221358100624</v>
+        <v>0.002376643422965413</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.257083077424411</v>
+        <v>0.4109390783043807</v>
       </c>
       <c r="N17">
-        <v>0.5320131120339582</v>
+        <v>0.932341584582062</v>
       </c>
       <c r="O17">
-        <v>1.628503193886559</v>
+        <v>1.616406770098735</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.712118646635247</v>
+        <v>0.8590221481490516</v>
       </c>
       <c r="C18">
-        <v>0.5649695091150591</v>
+        <v>0.1961090703418336</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3421448603227049</v>
+        <v>0.155388328121532</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007652798075045991</v>
+        <v>0.002377274041835631</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.224298717550397</v>
+        <v>0.4019020990248947</v>
       </c>
       <c r="N18">
-        <v>0.5363598931701503</v>
+        <v>0.9343466879106117</v>
       </c>
       <c r="O18">
-        <v>1.596062045577582</v>
+        <v>1.61295111595399</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.688526168360909</v>
+        <v>0.8519987074324149</v>
       </c>
       <c r="C19">
-        <v>0.5605277295669282</v>
+        <v>0.1947187906820318</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3390013784154959</v>
+        <v>0.1546914736450589</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0007656390077879349</v>
+        <v>0.002377489043673622</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.213221119619973</v>
+        <v>0.3988435560058718</v>
       </c>
       <c r="N19">
-        <v>0.537854302732562</v>
+        <v>0.9350333021511759</v>
       </c>
       <c r="O19">
-        <v>1.585182596016523</v>
+        <v>1.611805713190051</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.794785619104971</v>
+        <v>0.8836008947287723</v>
       </c>
       <c r="C20">
-        <v>0.5805270609594402</v>
+        <v>0.2009712057883632</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.35320865160773</v>
+        <v>0.1578355488224048</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007640268976372462</v>
+        <v>0.002376527414647295</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.263161717749028</v>
+        <v>0.4126122012761044</v>
       </c>
       <c r="N20">
-        <v>0.5312194819805995</v>
+        <v>0.9319741524767551</v>
       </c>
       <c r="O20">
-        <v>1.634557737932028</v>
+        <v>1.617058039050221</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.153573292393901</v>
+        <v>0.9897048438897968</v>
       </c>
       <c r="C21">
-        <v>0.647942602451252</v>
+        <v>0.2219077080025897</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.402100131940557</v>
+        <v>0.1685430050152092</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0007586832435941915</v>
+        <v>0.00237339950456561</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.432682050452897</v>
+        <v>0.4589581477200824</v>
       </c>
       <c r="N21">
-        <v>0.5105636365409509</v>
+        <v>0.9222330328618327</v>
       </c>
       <c r="O21">
-        <v>1.808189992926458</v>
+        <v>1.636423686993624</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.389615760184199</v>
+        <v>1.058989468479865</v>
       </c>
       <c r="C22">
-        <v>0.6922067106223722</v>
+        <v>0.2355372339269195</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4350247435329067</v>
+        <v>0.1756494840545386</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007552413432362217</v>
+        <v>0.002371431700761177</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.544950495623283</v>
+        <v>0.489311530118016</v>
       </c>
       <c r="N22">
-        <v>0.4983569276909705</v>
+        <v>0.9162671849313568</v>
       </c>
       <c r="O22">
-        <v>1.928011130336699</v>
+        <v>1.65036782936977</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.263477520191657</v>
+        <v>1.022016778237514</v>
       </c>
       <c r="C23">
-        <v>0.6685607587831726</v>
+        <v>0.2282678729693259</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4173560585520022</v>
+        <v>0.1718466034018462</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007570739837997937</v>
+        <v>0.002372474978868552</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.484882767833525</v>
+        <v>0.4731055276721889</v>
       </c>
       <c r="N23">
-        <v>0.5047486415175086</v>
+        <v>0.9194146105845675</v>
       </c>
       <c r="O23">
-        <v>1.86344146579404</v>
+        <v>1.642807334211511</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.788944267453758</v>
+        <v>0.881865724552199</v>
       </c>
       <c r="C24">
-        <v>0.5794280599529316</v>
+        <v>0.2006281167751922</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3524243674856962</v>
+        <v>0.1576623537504958</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007641151438763827</v>
+        <v>0.002376579833970327</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.260413184313165</v>
+        <v>0.4118557729408252</v>
       </c>
       <c r="N24">
-        <v>0.5315778588104791</v>
+        <v>0.9321401257267397</v>
       </c>
       <c r="O24">
-        <v>1.63181857936334</v>
+        <v>1.616763158241071</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.282281949352637</v>
+        <v>0.7304592118351252</v>
       </c>
       <c r="C25">
-        <v>0.4839112136368158</v>
+        <v>0.170589743586703</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2858724299883946</v>
+        <v>0.142819428740637</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0007719507799961111</v>
+        <v>0.002381338005936611</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.023435217862364</v>
+        <v>0.346060039091789</v>
       </c>
       <c r="N25">
-        <v>0.565606118603128</v>
+        <v>0.9475854153731333</v>
       </c>
       <c r="O25">
-        <v>1.405592492183956</v>
+        <v>1.59415461895199</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_174/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_174/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6187859619917049</v>
+        <v>1.912150781213683</v>
       </c>
       <c r="C2">
-        <v>0.1482812415112562</v>
+        <v>0.4138610638813986</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1322710659816622</v>
+        <v>0.2391853841000611</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002385128605070427</v>
+        <v>0.0007779521576975739</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2978359708012661</v>
+        <v>0.8521568990625141</v>
       </c>
       <c r="N2">
-        <v>0.960436838222904</v>
+        <v>0.5945774721839712</v>
       </c>
       <c r="O2">
-        <v>1.582169136539818</v>
+        <v>1.255686762240458</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5429880626761303</v>
+        <v>1.662443896504016</v>
       </c>
       <c r="C3">
-        <v>0.133044394223873</v>
+        <v>0.3664466983819352</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1253534587306149</v>
+        <v>0.2086862433591889</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002387878182505747</v>
+        <v>0.000782175454715095</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2652862838435652</v>
+        <v>0.7375393537266532</v>
       </c>
       <c r="N3">
-        <v>0.9700696459690406</v>
+        <v>0.6164476165692605</v>
       </c>
       <c r="O3">
-        <v>1.576926623619414</v>
+        <v>1.162852628149892</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.49639343437957</v>
+        <v>1.509478118895544</v>
       </c>
       <c r="C4">
-        <v>0.1236312559996122</v>
+        <v>0.337329789681803</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.121218089091947</v>
+        <v>0.1904320055166693</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002389656037660677</v>
+        <v>0.0007848490285925491</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2453644858629005</v>
+        <v>0.6677221070459183</v>
       </c>
       <c r="N4">
-        <v>0.9764398761099216</v>
+        <v>0.6309159754955687</v>
       </c>
       <c r="O4">
-        <v>1.575119647667719</v>
+        <v>1.10967735031204</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4773928547347737</v>
+        <v>1.447205372704559</v>
       </c>
       <c r="C5">
-        <v>0.1197809960475809</v>
+        <v>0.3254589179489074</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1195608281402016</v>
+        <v>0.1830995992945361</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002390403128460692</v>
+        <v>0.0007859592368735682</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2372622078979205</v>
+        <v>0.6393894873914547</v>
       </c>
       <c r="N5">
-        <v>0.9791504049931561</v>
+        <v>0.6370646238687883</v>
       </c>
       <c r="O5">
-        <v>1.574737177684199</v>
+        <v>1.088901129349154</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4742370678440011</v>
+        <v>1.436868014041352</v>
       </c>
       <c r="C6">
-        <v>0.1191408027908096</v>
+        <v>0.3234873138499381</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.119287321322787</v>
+        <v>0.1818881329569066</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002390528549337325</v>
+        <v>0.0007861448499148382</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.235917797171183</v>
+        <v>0.6346914178777467</v>
       </c>
       <c r="N6">
-        <v>0.9796074093519493</v>
+        <v>0.6381006143491348</v>
       </c>
       <c r="O6">
-        <v>1.574695008880013</v>
+        <v>1.085503259708901</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4961372370578943</v>
+        <v>1.508638070422023</v>
       </c>
       <c r="C7">
-        <v>0.1235793878447282</v>
+        <v>0.3371697228092216</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1211956259036242</v>
+        <v>0.1903327034077975</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002389666021551239</v>
+        <v>0.0007848639167984316</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2452551509048604</v>
+        <v>0.6673395517245524</v>
       </c>
       <c r="N7">
-        <v>0.976475967162429</v>
+        <v>0.630997886555015</v>
       </c>
       <c r="O7">
-        <v>1.575113058207165</v>
+        <v>1.109393626715104</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.592662590556472</v>
+        <v>1.825961072331324</v>
       </c>
       <c r="C8">
-        <v>0.1430396381387311</v>
+        <v>0.3975107118775725</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1298624651760178</v>
+        <v>0.228563503088516</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002386058103733811</v>
+        <v>0.0007793919465480889</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2865995556549024</v>
+        <v>0.8125072062741836</v>
       </c>
       <c r="N8">
-        <v>0.9636636790217352</v>
+        <v>0.6018969663019789</v>
       </c>
       <c r="O8">
-        <v>1.580067764046674</v>
+        <v>1.222840993609651</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7814912944681396</v>
+        <v>2.452400547083016</v>
       </c>
       <c r="C9">
-        <v>0.1807380898304416</v>
+        <v>0.5160266378736367</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1477593662047951</v>
+        <v>0.30788795597892</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002379690798020927</v>
+        <v>0.0007692768833662068</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3681883095523162</v>
+        <v>1.102686586678942</v>
       </c>
       <c r="N9">
-        <v>0.9421529454581332</v>
+        <v>0.5535060706141337</v>
       </c>
       <c r="O9">
-        <v>1.601042616706536</v>
+        <v>1.478977798406817</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9199244875791805</v>
+        <v>2.917256647522265</v>
       </c>
       <c r="C10">
-        <v>0.2081479438601548</v>
+        <v>0.6035581811080988</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1614757331097891</v>
+        <v>0.3697391352888459</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002375439814465714</v>
+        <v>0.0007621863263467475</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4284584075660263</v>
+        <v>1.320872549384944</v>
       </c>
       <c r="N10">
-        <v>0.9285508886679139</v>
+        <v>0.5238721551604542</v>
       </c>
       <c r="O10">
-        <v>1.623397971210807</v>
+        <v>1.692644033781704</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9828328856214057</v>
+        <v>3.130238815596442</v>
       </c>
       <c r="C11">
-        <v>0.2205541613240314</v>
+        <v>0.6435631282712961</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1678428791132234</v>
+        <v>0.3988777712928737</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002373597725217965</v>
+        <v>0.0007590264812813667</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4559512894493878</v>
+        <v>1.421615367470608</v>
       </c>
       <c r="N11">
-        <v>0.9228409020569899</v>
+        <v>0.5118283155366186</v>
       </c>
       <c r="O11">
-        <v>1.6350939137578</v>
+        <v>1.796581534545368</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.006644630511062</v>
+        <v>3.211153104261541</v>
       </c>
       <c r="C12">
-        <v>0.2252429303046881</v>
+        <v>0.6587464657177122</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1702725788905965</v>
+        <v>0.4100766715574977</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002372913289807099</v>
+        <v>0.0007578386427841067</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4663731609416573</v>
+        <v>1.460014611781446</v>
       </c>
       <c r="N12">
-        <v>0.9207473684922505</v>
+        <v>0.5074881637066824</v>
       </c>
       <c r="O12">
-        <v>1.639743709079056</v>
+        <v>1.837018662521501</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.001516817169545</v>
+        <v>3.193714336402934</v>
       </c>
       <c r="C13">
-        <v>0.2242335319643587</v>
+        <v>0.655474807595624</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1697484681087005</v>
+        <v>0.4076571122059249</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002373060112628382</v>
+        <v>0.0007580940890558581</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4641281386141998</v>
+        <v>1.451732913678768</v>
       </c>
       <c r="N13">
-        <v>0.9211951918117194</v>
+        <v>0.5084128475637684</v>
       </c>
       <c r="O13">
-        <v>1.638732451739145</v>
+        <v>1.82826001035582</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9847921036242155</v>
+        <v>3.136890151875946</v>
       </c>
       <c r="C14">
-        <v>0.2209400945373545</v>
+        <v>0.644811536759164</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1680423976868823</v>
+        <v>0.3997956850203721</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002373541153570941</v>
+        <v>0.0007589285865552409</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4568084842039042</v>
+        <v>1.424769265306111</v>
       </c>
       <c r="N14">
-        <v>0.9226672884731926</v>
+        <v>0.5114667435919529</v>
       </c>
       <c r="O14">
-        <v>1.635472022670825</v>
+        <v>1.799886053376213</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9745463664210092</v>
+        <v>3.102119278480075</v>
       </c>
       <c r="C15">
-        <v>0.2189215658964656</v>
+        <v>0.6382846825174795</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.16699981041684</v>
+        <v>0.3950024319242473</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002373837512515035</v>
+        <v>0.0007594408544389082</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4523264066352652</v>
+        <v>1.408286951599251</v>
       </c>
       <c r="N15">
-        <v>0.9235779397467923</v>
+        <v>0.5133665044660134</v>
       </c>
       <c r="O15">
-        <v>1.633503708556191</v>
+        <v>1.782650002676718</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9158118819315177</v>
+        <v>2.903371994666315</v>
       </c>
       <c r="C16">
-        <v>0.207335891557392</v>
+        <v>0.6009481416163283</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1610622134532278</v>
+        <v>0.3678567423782297</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002375562039031063</v>
+        <v>0.0007623940912369653</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4266632088319398</v>
+        <v>1.314321734874227</v>
       </c>
       <c r="N16">
-        <v>0.9289336636772845</v>
+        <v>0.5246893299940467</v>
       </c>
       <c r="O16">
-        <v>1.622664439995134</v>
+        <v>1.685996209936462</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8797627651288735</v>
+        <v>2.781865871822049</v>
       </c>
       <c r="C17">
-        <v>0.2002122738882122</v>
+        <v>0.5780962558917793</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1574525346935758</v>
+        <v>0.3514745014416221</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002376643422965413</v>
+        <v>0.0007642221357589001</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4109390783043807</v>
+        <v>1.257083077424383</v>
       </c>
       <c r="N17">
-        <v>0.932341584582062</v>
+        <v>0.532013112033944</v>
       </c>
       <c r="O17">
-        <v>1.616406770098735</v>
+        <v>1.628503193886559</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8590221481490516</v>
+        <v>2.712118646635076</v>
       </c>
       <c r="C18">
-        <v>0.1961090703418336</v>
+        <v>0.5649695091149738</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.155388328121532</v>
+        <v>0.3421448603226978</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002377274041835631</v>
+        <v>0.0007652798075332143</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4019020990248947</v>
+        <v>1.224298717550397</v>
       </c>
       <c r="N18">
-        <v>0.9343466879106117</v>
+        <v>0.5363598931701574</v>
       </c>
       <c r="O18">
-        <v>1.61295111595399</v>
+        <v>1.596062045577526</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8519987074324149</v>
+        <v>2.688526168360966</v>
       </c>
       <c r="C19">
-        <v>0.1947187906820318</v>
+        <v>0.5605277295671272</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1546914736450589</v>
+        <v>0.3390013784155173</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002377489043673622</v>
+        <v>0.0007656390078658995</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3988435560058718</v>
+        <v>1.213221119619945</v>
       </c>
       <c r="N19">
-        <v>0.9350333021511759</v>
+        <v>0.5378543027325478</v>
       </c>
       <c r="O19">
-        <v>1.611805713190051</v>
+        <v>1.585182596016608</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8836008947287723</v>
+        <v>2.794785619104971</v>
       </c>
       <c r="C20">
-        <v>0.2009712057883632</v>
+        <v>0.5805270609594118</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1578355488224048</v>
+        <v>0.3532086516077726</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002376527414647295</v>
+        <v>0.0007640268976358424</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4126122012761044</v>
+        <v>1.263161717749014</v>
       </c>
       <c r="N20">
-        <v>0.9319741524767551</v>
+        <v>0.5312194819805995</v>
       </c>
       <c r="O20">
-        <v>1.617058039050221</v>
+        <v>1.634557737931999</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9897048438897968</v>
+        <v>3.153573292394128</v>
       </c>
       <c r="C21">
-        <v>0.2219077080025897</v>
+        <v>0.6479426024517352</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1685430050152092</v>
+        <v>0.4021001319405357</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.00237339950456561</v>
+        <v>0.0007586832436224494</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4589581477200824</v>
+        <v>1.432682050452883</v>
       </c>
       <c r="N21">
-        <v>0.9222330328618327</v>
+        <v>0.5105636365409723</v>
       </c>
       <c r="O21">
-        <v>1.636423686993624</v>
+        <v>1.808189992926486</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.058989468479865</v>
+        <v>3.389615760184086</v>
       </c>
       <c r="C22">
-        <v>0.2355372339269195</v>
+        <v>0.69220671062223</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1756494840545386</v>
+        <v>0.4350247435328853</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002371431700761177</v>
+        <v>0.0007552413432070455</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.489311530118016</v>
+        <v>1.544950495623297</v>
       </c>
       <c r="N22">
-        <v>0.9162671849313568</v>
+        <v>0.4983569276909137</v>
       </c>
       <c r="O22">
-        <v>1.65036782936977</v>
+        <v>1.928011130336728</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.022016778237514</v>
+        <v>3.263477520191429</v>
       </c>
       <c r="C23">
-        <v>0.2282678729693259</v>
+        <v>0.6685607587828599</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1718466034018462</v>
+        <v>0.4173560585519667</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002372474978868552</v>
+        <v>0.000757073983772071</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4731055276721889</v>
+        <v>1.484882767833554</v>
       </c>
       <c r="N23">
-        <v>0.9194146105845675</v>
+        <v>0.5047486415175158</v>
       </c>
       <c r="O23">
-        <v>1.642807334211511</v>
+        <v>1.863441465793983</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.881865724552199</v>
+        <v>2.788944267453758</v>
       </c>
       <c r="C24">
-        <v>0.2006281167751922</v>
+        <v>0.5794280599531589</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1576623537504958</v>
+        <v>0.352424367485682</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002376579833970327</v>
+        <v>0.0007641151438763741</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4118557729408252</v>
+        <v>1.260413184313137</v>
       </c>
       <c r="N24">
-        <v>0.9321401257267397</v>
+        <v>0.5315778588104862</v>
       </c>
       <c r="O24">
-        <v>1.616763158241071</v>
+        <v>1.631818579363312</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7304592118351252</v>
+        <v>2.282281949352637</v>
       </c>
       <c r="C25">
-        <v>0.170589743586703</v>
+        <v>0.4839112136370431</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.142819428740637</v>
+        <v>0.2858724299883733</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002381338005936611</v>
+        <v>0.0007719507799393345</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.346060039091789</v>
+        <v>1.023435217862357</v>
       </c>
       <c r="N25">
-        <v>0.9475854153731333</v>
+        <v>0.565606118603128</v>
       </c>
       <c r="O25">
-        <v>1.59415461895199</v>
+        <v>1.405592492183956</v>
       </c>
     </row>
   </sheetData>
